--- a/TwoNewOrg/src/main/webapp/resources/templet/feigong.xlsx
+++ b/TwoNewOrg/src/main/webapp/resources/templet/feigong.xlsx
@@ -13,7 +13,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -66,31 +65,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织关系在非公企业</t>
+  </si>
+  <si>
+    <t>中层管理人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中高级专业技术人员</t>
+  </si>
+  <si>
+    <t>生产经营一线职工</t>
+  </si>
+  <si>
+    <t>组织关系不在非公企业</t>
+  </si>
+  <si>
+    <t>农村党员</t>
+  </si>
+  <si>
     <t>转入类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织关系在非公企业</t>
-  </si>
-  <si>
-    <t>中层管理人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中高级专业技术人员</t>
-  </si>
-  <si>
-    <t>生产经营一线职工</t>
-  </si>
-  <si>
-    <t>组织关系不在非公企业</t>
-  </si>
-  <si>
-    <t>农村党员</t>
   </si>
 </sst>
 </file>
@@ -455,7 +454,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -484,33 +483,30 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>"转入,发展,因转未转组织关系"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
@@ -520,6 +516,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"小学,初中,高中,大专,本科,硕士研究生,博士研究生,中专,其它"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"转入,发展,应转未转入组织关系,应转未转出组织关系"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
